--- a/biology/Histoire de la zoologie et de la botanique/Olof_Torén/Olof_Torén.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Olof_Torén/Olof_Torén.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Olof_Tor%C3%A9n</t>
+          <t>Olof_Torén</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Olof Torén est un naturaliste et pasteur luthérien suédois, né à Sätila (province de Västergötland) le 1er octobre 1718[1] et décédé à Näsinge (province de Bohuslän) le 17 août 1753[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olof Torén est un naturaliste et pasteur luthérien suédois, né à Sätila (province de Västergötland) le 1er octobre 1718 et décédé à Näsinge (province de Bohuslän) le 17 août 1753.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Olof_Tor%C3%A9n</t>
+          <t>Olof_Torén</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et études
-Olof Torén, fils de Bengt Torén, chef de la gendarmerie du comté, et de Magdalena Olufsdotter Brandtberg est né le 1er octobre 1718 à Sätila[3]. En 1720, la famille s'installe à Sämbs où Bengt a obtenu un nouveau poste[3]. Recevant probablement d'abord une éducation à la maison, Olof Torén entre au gymnase de Göteborg le 5 février 1734[3]. Il commence ensuite des études à l'Université d'Uppsala le 6 décembre 1737, se concentrant sur la théologie et les sciences naturelles[3]. Torén est ordonné pasteur le 16 décembre 1747[3]. Pendant ses dix ans d'études à Uppsala, il a probablement travaillé comme précepteur[3].
-Expéditions en Asie
-Il participe comme aumônier de marine à deux expéditions de la Compagnie suédoise des Indes orientales, la première à destination de Canton à bord du navire Hoppet, du 26 janvier 1748 au 11 juillet 1749, et la seconde à destination de l'Inde et de la Chine, avec escales à Madère et à Ascension, à bord du navire Götha Lejon, du 25 février 1750 au 26 juillet 1752[3]. Au cours de ce dernier voyage, Torén passe notamment cinq  mois à Surat et six mois dans la région de Canton.
-Le deuxième voyage d'Olof Torén a été l'occasion d'une correspondance avec le naturaliste Carl von Linné après le retour de Torén en Suède alors qu'il était déjà malade[3]. Les notes de Torén qui y figurent ont d'ailleurs fait l'objet d'une publication posthume en 1757, sous le titre En Ostindisk Resa til Suratte, China &amp;c. från 1750 April 1. til 1752 Jun. 26.[4]. Elles ont ensuite été traduites vers l'allemand en 1765[5], le français en 1771[6] et l'anglais en 1771[7].
+          <t>Jeunesse et études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olof Torén, fils de Bengt Torén, chef de la gendarmerie du comté, et de Magdalena Olufsdotter Brandtberg est né le 1er octobre 1718 à Sätila. En 1720, la famille s'installe à Sämbs où Bengt a obtenu un nouveau poste. Recevant probablement d'abord une éducation à la maison, Olof Torén entre au gymnase de Göteborg le 5 février 1734. Il commence ensuite des études à l'Université d'Uppsala le 6 décembre 1737, se concentrant sur la théologie et les sciences naturelles. Torén est ordonné pasteur le 16 décembre 1747. Pendant ses dix ans d'études à Uppsala, il a probablement travaillé comme précepteur.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Olof_Tor%C3%A9n</t>
+          <t>Olof_Torén</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Expéditions en Asie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il participe comme aumônier de marine à deux expéditions de la Compagnie suédoise des Indes orientales, la première à destination de Canton à bord du navire Hoppet, du 26 janvier 1748 au 11 juillet 1749, et la seconde à destination de l'Inde et de la Chine, avec escales à Madère et à Ascension, à bord du navire Götha Lejon, du 25 février 1750 au 26 juillet 1752. Au cours de ce dernier voyage, Torén passe notamment cinq  mois à Surat et six mois dans la région de Canton.
+Le deuxième voyage d'Olof Torén a été l'occasion d'une correspondance avec le naturaliste Carl von Linné après le retour de Torén en Suède alors qu'il était déjà malade. Les notes de Torén qui y figurent ont d'ailleurs fait l'objet d'une publication posthume en 1757, sous le titre En Ostindisk Resa til Suratte, China &amp;c. från 1750 April 1. til 1752 Jun. 26.. Elles ont ensuite été traduites vers l'allemand en 1765, le français en 1771 et l'anglais en 1771.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olof_Torén</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olof_Tor%C3%A9n</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Linné a dédié à Olof Torén le genre botanique Torenia L. de la famille des Scrophulariacées[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Linné a dédié à Olof Torén le genre botanique Torenia L. de la famille des Scrophulariacées.
 </t>
         </is>
       </c>
